--- a/teaching/traditional_assets/database/data/south_africa/south_africa_oil_gas_production_and_exploration.xlsx
+++ b/teaching/traditional_assets/database/data/south_africa/south_africa_oil_gas_production_and_exploration.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.0646420133266081</v>
+        <v>-24.83870967741936</v>
       </c>
       <c r="H2">
-        <v>-0.0646420133266081</v>
+        <v>-24.83870967741936</v>
       </c>
       <c r="I2">
-        <v>-0.1205316458010333</v>
+        <v>-16.7741935483871</v>
       </c>
       <c r="J2">
-        <v>-0.1205316458010333</v>
+        <v>-16.7741935483871</v>
       </c>
       <c r="K2">
-        <v>-35.69</v>
+        <v>-2.48</v>
       </c>
       <c r="L2">
-        <v>-0.2368658578672118</v>
+        <v>-20</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>13.11</v>
+        <v>14.8</v>
       </c>
       <c r="V2">
-        <v>0.1053012048192771</v>
+        <v>0.1482965931863728</v>
       </c>
       <c r="W2">
-        <v>-0.5779425267389632</v>
+        <v>-0.1530864197530864</v>
       </c>
       <c r="X2">
-        <v>0.1424265387922275</v>
+        <v>0.09797387737246943</v>
       </c>
       <c r="Y2">
-        <v>-0.7203690655311907</v>
+        <v>-0.2510602971255559</v>
       </c>
       <c r="Z2">
-        <v>1.874076541147955</v>
+        <v>0.01154562383612663</v>
       </c>
       <c r="AA2">
-        <v>-0.383372470230403</v>
+        <v>-0.1936685288640596</v>
       </c>
       <c r="AB2">
-        <v>0.1166184887914432</v>
+        <v>0.08252131873405189</v>
       </c>
       <c r="AC2">
-        <v>-0.4999909590218462</v>
+        <v>-0.2761898475981115</v>
       </c>
       <c r="AD2">
-        <v>18.65</v>
+        <v>34.4</v>
       </c>
       <c r="AE2">
-        <v>0.2661313135824553</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>18.91613131358245</v>
+        <v>34.4</v>
       </c>
       <c r="AG2">
-        <v>5.806131313582455</v>
+        <v>19.6</v>
       </c>
       <c r="AH2">
-        <v>0.1318968176056982</v>
+        <v>0.2563338301043219</v>
       </c>
       <c r="AI2">
-        <v>0.2978161755506255</v>
+        <v>0.7257383966244726</v>
       </c>
       <c r="AJ2">
-        <v>0.04455762177153404</v>
+        <v>0.1641541038525963</v>
       </c>
       <c r="AK2">
-        <v>0.1151870052764381</v>
+        <v>0.6012269938650308</v>
       </c>
       <c r="AL2">
-        <v>2.504</v>
+        <v>0.295</v>
       </c>
       <c r="AM2">
-        <v>-1.374</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="AN2">
-        <v>-2.303037787107928</v>
+        <v>-18.59459459459459</v>
       </c>
       <c r="AO2">
-        <v>-7.340255591054314</v>
+        <v>-7.050847457627119</v>
       </c>
       <c r="AP2">
-        <v>-0.7169833679405354</v>
+        <v>-10.59459459459459</v>
       </c>
       <c r="AQ2">
-        <v>13.37700145560408</v>
+        <v>-20.8</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Efora Energy Limited (JSE:EEL)</t>
+          <t>Renergen Limited (JSE:REN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.04498338870431894</v>
+        <v>-24.83870967741936</v>
       </c>
       <c r="H3">
-        <v>-0.04498338870431894</v>
+        <v>-24.83870967741936</v>
       </c>
       <c r="I3">
-        <v>-0.09059074932207059</v>
+        <v>-16.7741935483871</v>
       </c>
       <c r="J3">
-        <v>-0.09059074932207059</v>
+        <v>-16.7741935483871</v>
       </c>
       <c r="K3">
-        <v>-31.6</v>
+        <v>-2.48</v>
       </c>
       <c r="L3">
-        <v>-0.2099667774086379</v>
+        <v>-20</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,198 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4.6</v>
+        <v>14.8</v>
       </c>
       <c r="V3">
-        <v>0.3650793650793651</v>
+        <v>0.1482965931863728</v>
       </c>
       <c r="W3">
-        <v>-0.4626647144948756</v>
+        <v>-0.1530864197530864</v>
       </c>
       <c r="X3">
-        <v>0.1796030576989846</v>
+        <v>0.09797387737246943</v>
       </c>
       <c r="Y3">
-        <v>-0.6422677721938602</v>
+        <v>-0.2510602971255559</v>
       </c>
       <c r="Z3">
-        <v>2.073587161806421</v>
+        <v>0.01154562383612663</v>
       </c>
       <c r="AA3">
-        <v>-0.1878478147726693</v>
+        <v>-0.1936685288640596</v>
       </c>
       <c r="AB3">
-        <v>0.1298239995450384</v>
+        <v>0.08252131873405189</v>
       </c>
       <c r="AC3">
-        <v>-0.3176718143177077</v>
+        <v>-0.2761898475981115</v>
       </c>
       <c r="AD3">
-        <v>15.6</v>
+        <v>34.4</v>
       </c>
       <c r="AE3">
-        <v>0.1795388648581125</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>15.77953886485811</v>
+        <v>34.4</v>
       </c>
       <c r="AG3">
-        <v>11.17953886485811</v>
+        <v>19.6</v>
       </c>
       <c r="AH3">
-        <v>0.5560181558974392</v>
+        <v>0.2563338301043219</v>
       </c>
       <c r="AI3">
-        <v>0.3469590778338104</v>
+        <v>0.7257383966244726</v>
       </c>
       <c r="AJ3">
-        <v>0.4701327022526692</v>
+        <v>0.1641541038525963</v>
       </c>
       <c r="AK3">
-        <v>0.2734751705936817</v>
+        <v>0.6012269938650308</v>
       </c>
       <c r="AL3">
-        <v>2.19</v>
+        <v>0.295</v>
       </c>
       <c r="AM3">
-        <v>-1.42</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="AN3">
-        <v>-4.118268215417106</v>
+        <v>-18.59459459459459</v>
       </c>
       <c r="AO3">
-        <v>-6.301369863013699</v>
+        <v>-7.050847457627119</v>
       </c>
       <c r="AP3">
-        <v>-2.951303818600346</v>
+        <v>-10.59459459459459</v>
       </c>
       <c r="AQ3">
-        <v>9.71830985915493</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Renergen Limited (JSE:REN)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Oil/Gas (Production and Exploration)</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>-16.875</v>
-      </c>
-      <c r="H4">
-        <v>-16.875</v>
-      </c>
-      <c r="I4">
-        <v>-25.72340050991403</v>
-      </c>
-      <c r="J4">
-        <v>-25.72340050991403</v>
-      </c>
-      <c r="K4">
-        <v>-4.09</v>
-      </c>
-      <c r="L4">
-        <v>-23.23863636363636</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>8.51</v>
-      </c>
-      <c r="V4">
-        <v>0.07605004468275245</v>
-      </c>
-      <c r="W4">
-        <v>-0.6932203389830508</v>
-      </c>
-      <c r="X4">
-        <v>0.1052500198854704</v>
-      </c>
-      <c r="Y4">
-        <v>-0.7984703588685212</v>
-      </c>
-      <c r="Z4">
-        <v>0.02250468889076406</v>
-      </c>
-      <c r="AA4">
-        <v>-0.5788971256881367</v>
-      </c>
-      <c r="AB4">
-        <v>0.1034129780378479</v>
-      </c>
-      <c r="AC4">
-        <v>-0.6823101037259847</v>
-      </c>
-      <c r="AD4">
-        <v>3.05</v>
-      </c>
-      <c r="AE4">
-        <v>0.08659244872434278</v>
-      </c>
-      <c r="AF4">
-        <v>3.136592448724342</v>
-      </c>
-      <c r="AG4">
-        <v>-5.373407551275657</v>
-      </c>
-      <c r="AH4">
-        <v>0.02726604102188116</v>
-      </c>
-      <c r="AI4">
-        <v>0.1739016090562151</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.05044193593127557</v>
-      </c>
-      <c r="AK4">
-        <v>-0.5640429755127377</v>
-      </c>
-      <c r="AL4">
-        <v>0.314</v>
-      </c>
-      <c r="AM4">
-        <v>0.04599999999999999</v>
-      </c>
-      <c r="AN4">
-        <v>-0.7076566125290024</v>
-      </c>
-      <c r="AO4">
-        <v>-14.5859872611465</v>
-      </c>
-      <c r="AP4">
-        <v>1.246730290319178</v>
-      </c>
-      <c r="AQ4">
-        <v>-99.56521739130439</v>
+        <v>-20.8</v>
       </c>
     </row>
   </sheetData>
